--- a/media/data.xlsx
+++ b/media/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avsulyay\PycharmProject\git_django_oprosusers\Django-oprosusers\media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Проекты\13_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Пробный вопрос</t>
   </si>
@@ -53,10 +53,43 @@
     <t>Пробный вопрос 2</t>
   </si>
   <si>
-    <t>Не правильный ответ 4</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2_Не правильный ответ 4</t>
+  </si>
+  <si>
+    <t>2_Не правильный ответ 1</t>
+  </si>
+  <si>
+    <t>2_Не правильный ответ 2</t>
+  </si>
+  <si>
+    <t>2_Не правильный ответ 3</t>
+  </si>
+  <si>
+    <t>2_Правильный ответ</t>
+  </si>
+  <si>
+    <t>Пробный вопрос 3</t>
+  </si>
+  <si>
+    <t>3_Не правильный ответ 1</t>
+  </si>
+  <si>
+    <t>Пробный вопрос 4</t>
+  </si>
+  <si>
+    <t>4_Не правильный ответ 1</t>
+  </si>
+  <si>
+    <t>4_Правильный ответ</t>
+  </si>
+  <si>
+    <t>4_Не правильный ответ 2</t>
+  </si>
+  <si>
+    <t>3_Правильный ответ</t>
   </si>
 </sst>
 </file>
@@ -375,16 +408,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
@@ -413,7 +446,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -434,33 +467,73 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="C10">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
